--- a/data/tableone_validation_methylscoreaml_px.xlsx
+++ b/data/tableone_validation_methylscoreaml_px.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>Grouped by MethylScoreAML_Px Categorical</t>
   </si>
@@ -136,169 +136,172 @@
     <t>No</t>
   </si>
   <si>
-    <t>9.5 (5.6)</t>
-  </si>
-  <si>
-    <t>61 (50.8)</t>
-  </si>
-  <si>
-    <t>59 (49.2)</t>
-  </si>
-  <si>
-    <t>46 (38.0)</t>
-  </si>
-  <si>
-    <t>75 (62.0)</t>
-  </si>
-  <si>
-    <t>87 (71.9)</t>
-  </si>
-  <si>
-    <t>19 (15.7)</t>
-  </si>
-  <si>
-    <t>1 (0.8)</t>
-  </si>
-  <si>
-    <t>14 (11.6)</t>
-  </si>
-  <si>
-    <t>13 (10.8)</t>
-  </si>
-  <si>
-    <t>107 (89.2)</t>
-  </si>
-  <si>
-    <t>41 (36.0)</t>
-  </si>
-  <si>
-    <t>73 (64.0)</t>
-  </si>
-  <si>
-    <t>54 (44.6)</t>
-  </si>
-  <si>
-    <t>67 (55.4)</t>
-  </si>
-  <si>
-    <t>55.8 (24.4)</t>
-  </si>
-  <si>
-    <t>32 (26.4)</t>
-  </si>
-  <si>
-    <t>37 (30.6)</t>
-  </si>
-  <si>
-    <t>52 (43.0)</t>
-  </si>
-  <si>
-    <t>99 (81.8)</t>
-  </si>
-  <si>
-    <t>22 (18.2)</t>
-  </si>
-  <si>
-    <t>22 (18.3)</t>
-  </si>
-  <si>
-    <t>98 (81.7)</t>
-  </si>
-  <si>
-    <t>7.6 (6.4)</t>
-  </si>
-  <si>
-    <t>34 (43.0)</t>
-  </si>
-  <si>
-    <t>45 (57.0)</t>
-  </si>
-  <si>
-    <t>41 (51.2)</t>
-  </si>
-  <si>
-    <t>39 (48.8)</t>
-  </si>
-  <si>
-    <t>56 (71.8)</t>
-  </si>
-  <si>
-    <t>13 (16.7)</t>
-  </si>
-  <si>
-    <t>1 (1.3)</t>
-  </si>
-  <si>
-    <t>7 (9.0)</t>
-  </si>
-  <si>
-    <t>12 (15.2)</t>
-  </si>
-  <si>
-    <t>67 (84.8)</t>
-  </si>
-  <si>
-    <t>35 (46.7)</t>
-  </si>
-  <si>
-    <t>40 (53.3)</t>
-  </si>
-  <si>
-    <t>66.6 (26.3)</t>
-  </si>
-  <si>
-    <t>19 (23.8)</t>
-  </si>
-  <si>
-    <t>50 (62.5)</t>
-  </si>
-  <si>
-    <t>11 (13.8)</t>
-  </si>
-  <si>
-    <t>60 (75.0)</t>
-  </si>
-  <si>
-    <t>20 (25.0)</t>
-  </si>
-  <si>
-    <t>9 (11.4)</t>
-  </si>
-  <si>
-    <t>70 (88.6)</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.088</t>
-  </si>
-  <si>
-    <t>0.740</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.940</t>
-  </si>
-  <si>
-    <t>0.006</t>
+    <t>9.9 (5.5)</t>
+  </si>
+  <si>
+    <t>50 (54.9)</t>
+  </si>
+  <si>
+    <t>41 (45.1)</t>
+  </si>
+  <si>
+    <t>37 (40.2)</t>
+  </si>
+  <si>
+    <t>55 (59.8)</t>
+  </si>
+  <si>
+    <t>64 (69.6)</t>
+  </si>
+  <si>
+    <t>15 (16.3)</t>
+  </si>
+  <si>
+    <t>1 (1.1)</t>
+  </si>
+  <si>
+    <t>12 (13.0)</t>
+  </si>
+  <si>
+    <t>9 (9.9)</t>
+  </si>
+  <si>
+    <t>82 (90.1)</t>
+  </si>
+  <si>
+    <t>29 (33.3)</t>
+  </si>
+  <si>
+    <t>58 (66.7)</t>
+  </si>
+  <si>
+    <t>44 (47.8)</t>
+  </si>
+  <si>
+    <t>48 (52.2)</t>
+  </si>
+  <si>
+    <t>55.7 (23.6)</t>
+  </si>
+  <si>
+    <t>27 (29.3)</t>
+  </si>
+  <si>
+    <t>50 (54.3)</t>
+  </si>
+  <si>
+    <t>74 (80.4)</t>
+  </si>
+  <si>
+    <t>18 (19.6)</t>
+  </si>
+  <si>
+    <t>12 (13.2)</t>
+  </si>
+  <si>
+    <t>79 (86.8)</t>
+  </si>
+  <si>
+    <t>7.8 (6.2)</t>
+  </si>
+  <si>
+    <t>45 (41.7)</t>
+  </si>
+  <si>
+    <t>63 (58.3)</t>
+  </si>
+  <si>
+    <t>50 (45.9)</t>
+  </si>
+  <si>
+    <t>59 (54.1)</t>
+  </si>
+  <si>
+    <t>79 (73.8)</t>
+  </si>
+  <si>
+    <t>17 (15.9)</t>
+  </si>
+  <si>
+    <t>1 (0.9)</t>
+  </si>
+  <si>
+    <t>9 (8.4)</t>
+  </si>
+  <si>
+    <t>16 (14.8)</t>
+  </si>
+  <si>
+    <t>92 (85.2)</t>
+  </si>
+  <si>
+    <t>47 (46.1)</t>
+  </si>
+  <si>
+    <t>55 (53.9)</t>
+  </si>
+  <si>
+    <t>44 (40.7)</t>
+  </si>
+  <si>
+    <t>64 (59.3)</t>
+  </si>
+  <si>
+    <t>63.7 (26.8)</t>
+  </si>
+  <si>
+    <t>36 (33.0)</t>
+  </si>
+  <si>
+    <t>60 (55.0)</t>
+  </si>
+  <si>
+    <t>13 (11.9)</t>
+  </si>
+  <si>
+    <t>85 (78.0)</t>
+  </si>
+  <si>
+    <t>24 (22.0)</t>
+  </si>
+  <si>
+    <t>19 (17.6)</t>
+  </si>
+  <si>
+    <t>89 (82.4)</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.035</t>
   </si>
   <si>
     <t>&lt;0.001</t>
   </si>
   <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.262</t>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.511</t>
   </si>
   <si>
     <t>Two Sample T-test</t>
@@ -705,10 +708,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -723,13 +726,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -746,13 +749,13 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -764,7 +767,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -781,13 +784,13 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -799,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -816,13 +819,13 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -834,7 +837,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -843,7 +846,7 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -855,7 +858,7 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -867,7 +870,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -884,13 +887,13 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -902,7 +905,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -919,13 +922,13 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -937,7 +940,7 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -954,13 +957,13 @@
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -972,7 +975,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -987,13 +990,13 @@
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1007,16 +1010,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1025,10 +1028,10 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1037,10 +1040,10 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1054,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1072,10 +1075,10 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1089,16 +1092,16 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1107,10 +1110,10 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/tableone_validation_methylscoreaml_px.xlsx
+++ b/data/tableone_validation_methylscoreaml_px.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>Grouped by MethylScoreAML_Px Categorical</t>
   </si>
@@ -136,172 +136,169 @@
     <t>No</t>
   </si>
   <si>
-    <t>9.9 (5.5)</t>
-  </si>
-  <si>
-    <t>50 (54.9)</t>
-  </si>
-  <si>
-    <t>41 (45.1)</t>
-  </si>
-  <si>
-    <t>37 (40.2)</t>
-  </si>
-  <si>
-    <t>55 (59.8)</t>
-  </si>
-  <si>
-    <t>64 (69.6)</t>
-  </si>
-  <si>
-    <t>15 (16.3)</t>
-  </si>
-  <si>
-    <t>1 (1.1)</t>
-  </si>
-  <si>
-    <t>12 (13.0)</t>
-  </si>
-  <si>
-    <t>9 (9.9)</t>
-  </si>
-  <si>
-    <t>82 (90.1)</t>
-  </si>
-  <si>
-    <t>29 (33.3)</t>
-  </si>
-  <si>
-    <t>58 (66.7)</t>
-  </si>
-  <si>
-    <t>44 (47.8)</t>
-  </si>
-  <si>
-    <t>48 (52.2)</t>
-  </si>
-  <si>
-    <t>55.7 (23.6)</t>
-  </si>
-  <si>
-    <t>27 (29.3)</t>
-  </si>
-  <si>
-    <t>50 (54.3)</t>
-  </si>
-  <si>
-    <t>74 (80.4)</t>
-  </si>
-  <si>
-    <t>18 (19.6)</t>
-  </si>
-  <si>
-    <t>12 (13.2)</t>
-  </si>
-  <si>
-    <t>79 (86.8)</t>
-  </si>
-  <si>
-    <t>7.8 (6.2)</t>
-  </si>
-  <si>
-    <t>45 (41.7)</t>
-  </si>
-  <si>
-    <t>63 (58.3)</t>
-  </si>
-  <si>
-    <t>50 (45.9)</t>
-  </si>
-  <si>
-    <t>59 (54.1)</t>
-  </si>
-  <si>
-    <t>79 (73.8)</t>
-  </si>
-  <si>
-    <t>17 (15.9)</t>
+    <t>9.5 (5.7)</t>
+  </si>
+  <si>
+    <t>63 (54.3)</t>
+  </si>
+  <si>
+    <t>53 (45.7)</t>
+  </si>
+  <si>
+    <t>45 (38.5)</t>
+  </si>
+  <si>
+    <t>72 (61.5)</t>
+  </si>
+  <si>
+    <t>86 (74.1)</t>
+  </si>
+  <si>
+    <t>16 (13.8)</t>
   </si>
   <si>
     <t>1 (0.9)</t>
   </si>
   <si>
-    <t>9 (8.4)</t>
-  </si>
-  <si>
-    <t>16 (14.8)</t>
-  </si>
-  <si>
-    <t>92 (85.2)</t>
-  </si>
-  <si>
-    <t>47 (46.1)</t>
-  </si>
-  <si>
-    <t>55 (53.9)</t>
-  </si>
-  <si>
-    <t>44 (40.7)</t>
-  </si>
-  <si>
-    <t>64 (59.3)</t>
-  </si>
-  <si>
-    <t>63.7 (26.8)</t>
-  </si>
-  <si>
-    <t>36 (33.0)</t>
-  </si>
-  <si>
-    <t>60 (55.0)</t>
-  </si>
-  <si>
-    <t>13 (11.9)</t>
-  </si>
-  <si>
-    <t>85 (78.0)</t>
-  </si>
-  <si>
-    <t>24 (22.0)</t>
-  </si>
-  <si>
-    <t>19 (17.6)</t>
-  </si>
-  <si>
-    <t>89 (82.4)</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.035</t>
+    <t>13 (11.2)</t>
+  </si>
+  <si>
+    <t>10 (8.6)</t>
+  </si>
+  <si>
+    <t>106 (91.4)</t>
+  </si>
+  <si>
+    <t>38 (34.2)</t>
+  </si>
+  <si>
+    <t>73 (65.8)</t>
+  </si>
+  <si>
+    <t>43 (36.8)</t>
+  </si>
+  <si>
+    <t>74 (63.2)</t>
+  </si>
+  <si>
+    <t>52.9 (25.2)</t>
+  </si>
+  <si>
+    <t>27 (23.1)</t>
+  </si>
+  <si>
+    <t>37 (31.6)</t>
+  </si>
+  <si>
+    <t>53 (45.3)</t>
+  </si>
+  <si>
+    <t>93 (79.5)</t>
+  </si>
+  <si>
+    <t>24 (20.5)</t>
+  </si>
+  <si>
+    <t>12 (10.3)</t>
+  </si>
+  <si>
+    <t>104 (89.7)</t>
+  </si>
+  <si>
+    <t>7.7 (6.3)</t>
+  </si>
+  <si>
+    <t>32 (38.6)</t>
+  </si>
+  <si>
+    <t>51 (61.4)</t>
+  </si>
+  <si>
+    <t>42 (50.0)</t>
+  </si>
+  <si>
+    <t>57 (68.7)</t>
+  </si>
+  <si>
+    <t>16 (19.3)</t>
+  </si>
+  <si>
+    <t>1 (1.2)</t>
+  </si>
+  <si>
+    <t>8 (9.6)</t>
+  </si>
+  <si>
+    <t>15 (18.1)</t>
+  </si>
+  <si>
+    <t>68 (81.9)</t>
+  </si>
+  <si>
+    <t>38 (48.7)</t>
+  </si>
+  <si>
+    <t>40 (51.3)</t>
+  </si>
+  <si>
+    <t>45 (54.2)</t>
+  </si>
+  <si>
+    <t>38 (45.8)</t>
+  </si>
+  <si>
+    <t>70.8 (22.5)</t>
+  </si>
+  <si>
+    <t>24 (28.6)</t>
+  </si>
+  <si>
+    <t>50 (59.5)</t>
+  </si>
+  <si>
+    <t>10 (11.9)</t>
+  </si>
+  <si>
+    <t>66 (78.6)</t>
+  </si>
+  <si>
+    <t>18 (21.4)</t>
+  </si>
+  <si>
+    <t>19 (22.9)</t>
+  </si>
+  <si>
+    <t>64 (77.1)</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.040</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.614</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.021</t>
   </si>
   <si>
     <t>&lt;0.001</t>
   </si>
   <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.511</t>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.027</t>
   </si>
   <si>
     <t>Two Sample T-test</t>
@@ -708,10 +705,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -726,13 +723,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
         <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -749,13 +746,13 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -767,7 +764,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -784,13 +781,13 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -825,7 +822,7 @@
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -893,7 +890,7 @@
         <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -928,7 +925,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -963,7 +960,7 @@
         <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -996,7 +993,7 @@
         <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1010,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
         <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1028,7 +1025,7 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
         <v>79</v>
@@ -1040,7 +1037,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>80</v>
@@ -1057,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
         <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1075,7 +1072,7 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>82</v>
@@ -1092,16 +1089,16 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1110,7 +1107,7 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>84</v>

--- a/data/tableone_validation_methylscoreaml_px.xlsx
+++ b/data/tableone_validation_methylscoreaml_px.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>Grouped by MethylScoreAML_Px Categorical</t>
   </si>
@@ -136,43 +136,37 @@
     <t>No</t>
   </si>
   <si>
-    <t>9.5 (5.7)</t>
-  </si>
-  <si>
-    <t>63 (54.3)</t>
-  </si>
-  <si>
-    <t>53 (45.7)</t>
-  </si>
-  <si>
-    <t>45 (38.5)</t>
-  </si>
-  <si>
-    <t>72 (61.5)</t>
-  </si>
-  <si>
-    <t>86 (74.1)</t>
-  </si>
-  <si>
-    <t>16 (13.8)</t>
-  </si>
-  <si>
-    <t>1 (0.9)</t>
-  </si>
-  <si>
-    <t>13 (11.2)</t>
-  </si>
-  <si>
-    <t>10 (8.6)</t>
-  </si>
-  <si>
-    <t>106 (91.4)</t>
-  </si>
-  <si>
-    <t>38 (34.2)</t>
-  </si>
-  <si>
-    <t>73 (65.8)</t>
+    <t>9.6 (5.5)</t>
+  </si>
+  <si>
+    <t>65 (53.7)</t>
+  </si>
+  <si>
+    <t>56 (46.3)</t>
+  </si>
+  <si>
+    <t>48 (39.3)</t>
+  </si>
+  <si>
+    <t>74 (60.7)</t>
+  </si>
+  <si>
+    <t>87 (71.9)</t>
+  </si>
+  <si>
+    <t>21 (17.4)</t>
+  </si>
+  <si>
+    <t>1 (0.8)</t>
+  </si>
+  <si>
+    <t>12 (9.9)</t>
+  </si>
+  <si>
+    <t>11 (9.1)</t>
+  </si>
+  <si>
+    <t>110 (90.9)</t>
   </si>
   <si>
     <t>43 (36.8)</t>
@@ -181,124 +175,133 @@
     <t>74 (63.2)</t>
   </si>
   <si>
-    <t>52.9 (25.2)</t>
-  </si>
-  <si>
-    <t>27 (23.1)</t>
-  </si>
-  <si>
-    <t>37 (31.6)</t>
-  </si>
-  <si>
-    <t>53 (45.3)</t>
-  </si>
-  <si>
-    <t>93 (79.5)</t>
-  </si>
-  <si>
-    <t>24 (20.5)</t>
-  </si>
-  <si>
-    <t>12 (10.3)</t>
-  </si>
-  <si>
-    <t>104 (89.7)</t>
-  </si>
-  <si>
-    <t>7.7 (6.3)</t>
-  </si>
-  <si>
-    <t>32 (38.6)</t>
-  </si>
-  <si>
-    <t>51 (61.4)</t>
-  </si>
-  <si>
-    <t>42 (50.0)</t>
-  </si>
-  <si>
-    <t>57 (68.7)</t>
-  </si>
-  <si>
-    <t>16 (19.3)</t>
-  </si>
-  <si>
-    <t>1 (1.2)</t>
-  </si>
-  <si>
-    <t>8 (9.6)</t>
-  </si>
-  <si>
-    <t>15 (18.1)</t>
-  </si>
-  <si>
-    <t>68 (81.9)</t>
-  </si>
-  <si>
-    <t>38 (48.7)</t>
-  </si>
-  <si>
-    <t>40 (51.3)</t>
-  </si>
-  <si>
-    <t>45 (54.2)</t>
-  </si>
-  <si>
-    <t>38 (45.8)</t>
-  </si>
-  <si>
-    <t>70.8 (22.5)</t>
-  </si>
-  <si>
-    <t>24 (28.6)</t>
-  </si>
-  <si>
-    <t>50 (59.5)</t>
-  </si>
-  <si>
-    <t>10 (11.9)</t>
-  </si>
-  <si>
-    <t>66 (78.6)</t>
-  </si>
-  <si>
-    <t>18 (21.4)</t>
-  </si>
-  <si>
-    <t>19 (22.9)</t>
-  </si>
-  <si>
-    <t>64 (77.1)</t>
-  </si>
-  <si>
-    <t>0.041</t>
-  </si>
-  <si>
-    <t>0.040</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>0.614</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>0.065</t>
+    <t>53 (43.4)</t>
+  </si>
+  <si>
+    <t>69 (56.6)</t>
+  </si>
+  <si>
+    <t>55.5 (25.0)</t>
+  </si>
+  <si>
+    <t>30 (24.6)</t>
+  </si>
+  <si>
+    <t>40 (32.8)</t>
+  </si>
+  <si>
+    <t>52 (42.6)</t>
+  </si>
+  <si>
+    <t>97 (79.5)</t>
+  </si>
+  <si>
+    <t>25 (20.5)</t>
+  </si>
+  <si>
+    <t>100 (82.6)</t>
+  </si>
+  <si>
+    <t>7.5 (6.4)</t>
+  </si>
+  <si>
+    <t>30 (38.5)</t>
+  </si>
+  <si>
+    <t>48 (61.5)</t>
+  </si>
+  <si>
+    <t>39 (49.4)</t>
+  </si>
+  <si>
+    <t>40 (50.6)</t>
+  </si>
+  <si>
+    <t>56 (71.8)</t>
+  </si>
+  <si>
+    <t>11 (14.1)</t>
+  </si>
+  <si>
+    <t>1 (1.3)</t>
+  </si>
+  <si>
+    <t>9 (11.5)</t>
+  </si>
+  <si>
+    <t>14 (17.9)</t>
+  </si>
+  <si>
+    <t>64 (82.1)</t>
+  </si>
+  <si>
+    <t>33 (45.8)</t>
+  </si>
+  <si>
+    <t>39 (54.2)</t>
+  </si>
+  <si>
+    <t>35 (44.9)</t>
+  </si>
+  <si>
+    <t>43 (55.1)</t>
+  </si>
+  <si>
+    <t>67.3 (25.2)</t>
+  </si>
+  <si>
+    <t>21 (26.6)</t>
+  </si>
+  <si>
+    <t>47 (59.5)</t>
+  </si>
+  <si>
+    <t>11 (13.9)</t>
+  </si>
+  <si>
+    <t>62 (78.5)</t>
+  </si>
+  <si>
+    <t>17 (21.5)</t>
+  </si>
+  <si>
+    <t>10 (12.8)</t>
+  </si>
+  <si>
+    <t>68 (87.2)</t>
   </si>
   <si>
     <t>0.021</t>
   </si>
   <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.209</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
     <t>&lt;0.001</t>
   </si>
   <si>
     <t>1.000</t>
   </si>
   <si>
-    <t>0.027</t>
+    <t>0.509</t>
   </si>
   <si>
     <t>Two Sample T-test</t>
@@ -705,10 +708,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -723,13 +726,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
         <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -746,13 +749,13 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -764,7 +767,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -781,13 +784,13 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -822,7 +825,7 @@
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -890,7 +893,7 @@
         <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -925,7 +928,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -960,7 +963,7 @@
         <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -993,7 +996,7 @@
         <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1013,10 +1016,10 @@
         <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1060,10 +1063,10 @@
         <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1089,16 +1092,16 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1107,7 +1110,7 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>84</v>
